--- a/outputs-r202/test-o__RF39.xlsx
+++ b/outputs-r202/test-o__RF39.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Row</t>
   </si>
@@ -76,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -86,14 +86,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,18 +116,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -134,7 +138,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -145,7 +149,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -156,7 +160,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -167,7 +171,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -178,7 +182,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -189,7 +193,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -200,7 +204,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -211,7 +215,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -222,7 +226,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -233,7 +237,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">

--- a/outputs-r202/test-o__RF39.xlsx
+++ b/outputs-r202/test-o__RF39.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="14">
   <si>
     <t>Row</t>
   </si>
@@ -76,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -88,16 +88,44 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -111,137 +139,137 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.28515625" customWidth="true"/>
+    <col min="2" max="2" width="12.42578125" customWidth="true"/>
     <col min="3" max="3" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>15085.80395249731</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3450.4868071220753</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>11029.997618195717</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3551.7177725866022</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>-1271.7220726913656</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6385.3487251236002</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>18130.80467507385</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>21435.348959835155</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>5725.5199697012977</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>19170.297513934078</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>28457.464562980527</v>
       </c>
       <c r="C12">
         <v>1</v>

--- a/outputs-r202/test-o__RF39.xlsx
+++ b/outputs-r202/test-o__RF39.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Row</t>
-  </si>
-  <si>
-    <t>RUG357.fasta</t>
   </si>
   <si>
     <t>RUG530.fasta</t>
@@ -76,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -86,46 +83,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,7 +100,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
@@ -144,134 +109,123 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15085.80395249731</v>
+        <v>3450.4868071220753</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3450.4868071220753</v>
+        <v>11029.997618195717</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>11029.997618195717</v>
+        <v>3551.7177725866022</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3551.7177725866022</v>
+        <v>-1271.7220726913656</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-1271.7220726913656</v>
+        <v>6385.3487251236002</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6385.3487251236002</v>
+        <v>18130.80467507385</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>18130.80467507385</v>
+        <v>21435.348959835155</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>21435.348959835155</v>
+        <v>5725.5199697012977</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5725.5199697012977</v>
+        <v>19170.297513934078</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>19170.297513934078</v>
+        <v>28457.464562980527</v>
       </c>
       <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>28457.464562980527</v>
-      </c>
-      <c r="C12">
         <v>1</v>
       </c>
     </row>
